--- a/mlogistic_states.xlsx
+++ b/mlogistic_states.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -512,7 +512,7 @@
   </sheetPr>
   <dimension ref="A1:BM113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AK6" activeCellId="0" sqref="AK6"/>
     </sheetView>
   </sheetViews>
@@ -3530,7 +3530,7 @@
   </sheetPr>
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>

--- a/mlogistic_states.xlsx
+++ b/mlogistic_states.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33620" windowHeight="19720" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -24,74 +27,71 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
   <si>
-    <t xml:space="preserve">Y=1</t>
+    <t>Y=1</t>
   </si>
   <si>
-    <t xml:space="preserve">Y=2</t>
+    <t>Y=2</t>
   </si>
   <si>
-    <t xml:space="preserve">Y=3</t>
+    <t>Y=3</t>
   </si>
   <si>
-    <t xml:space="preserve">Y=4</t>
+    <t>Y=4</t>
   </si>
   <si>
-    <t xml:space="preserve">aaa</t>
+    <t>aaa</t>
   </si>
   <si>
-    <t xml:space="preserve">maa</t>
+    <t>maa</t>
   </si>
   <si>
-    <t xml:space="preserve">ama</t>
+    <t>ama</t>
   </si>
   <si>
-    <t xml:space="preserve">aam</t>
+    <t>aam</t>
   </si>
   <si>
-    <t xml:space="preserve">R1</t>
+    <t>R1</t>
   </si>
   <si>
-    <t xml:space="preserve">R2</t>
+    <t>R2</t>
   </si>
   <si>
-    <t xml:space="preserve">R3</t>
+    <t>R3</t>
   </si>
   <si>
-    <t xml:space="preserve">S</t>
+    <t>S</t>
   </si>
   <si>
-    <t xml:space="preserve">wb</t>
+    <t>wb</t>
   </si>
   <si>
-    <t xml:space="preserve">ws</t>
+    <t>ws</t>
   </si>
   <si>
-    <t xml:space="preserve">w1</t>
+    <t>w1</t>
   </si>
   <si>
-    <t xml:space="preserve">w2</t>
+    <t>w2</t>
   </si>
   <si>
-    <t xml:space="preserve">w3</t>
+    <t>w3</t>
   </si>
   <si>
-    <t xml:space="preserve">L</t>
+    <t>L</t>
   </si>
   <si>
-    <t xml:space="preserve">M</t>
+    <t>M</t>
   </si>
   <si>
-    <t xml:space="preserve">H</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -99,68 +99,65 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -196,174 +193,216 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="3">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="37">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="37">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -422,56 +461,381 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AO87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:I27"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="1" style="1" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="5.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="16" style="1" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="32" style="0" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="57" style="1" width="5.01"/>
+    <col min="1" max="14" width="5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" style="1" customWidth="1"/>
+    <col min="16" max="31" width="5" style="1" customWidth="1"/>
+    <col min="32" max="56" width="5" customWidth="1"/>
+    <col min="57" max="1025" width="5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B1" s="2" t="n">
+    <row r="1" spans="1:41" ht="15" customHeight="1">
+      <c r="A1" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B1" s="2">
         <v>0.3</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="C1" s="2">
         <v>0.3</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="D1" s="2">
         <v>0.3</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1" s="4" t="n">
+      <c r="G1" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4">
         <v>1</v>
       </c>
       <c r="K1" s="4"/>
@@ -514,31 +878,31 @@
       <c r="AN1" s="5"/>
       <c r="AO1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B2" s="2" t="n">
+    <row r="2" spans="1:41" ht="15" customHeight="1">
+      <c r="A2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="2">
         <v>0.35</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>0.35</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>0.2</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
         <v>2</v>
       </c>
       <c r="K2" s="4"/>
@@ -581,31 +945,31 @@
       <c r="AN2" s="5"/>
       <c r="AO2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B3" s="2" t="n">
+    <row r="3" spans="1:41" ht="15" customHeight="1">
+      <c r="A3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="2">
         <v>0.35</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>0.2</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>0.35</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4" t="n">
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
         <v>3</v>
       </c>
       <c r="K3" s="4"/>
@@ -640,31 +1004,31 @@
       <c r="AN3" s="5"/>
       <c r="AO3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B4" s="2" t="n">
+    <row r="4" spans="1:41" ht="15" customHeight="1">
+      <c r="A4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="2">
         <v>0.2</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>0.35</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>0.35</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4" t="n">
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
         <v>4</v>
       </c>
       <c r="K4" s="7"/>
@@ -699,31 +1063,31 @@
       <c r="AN4" s="5"/>
       <c r="AO4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B5" s="2" t="n">
+    <row r="5" spans="1:41" ht="15" customHeight="1">
+      <c r="A5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B5" s="2">
         <v>0.4</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>0.4</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>0.1</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" s="4" t="n">
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
         <v>5</v>
       </c>
       <c r="K5" s="8"/>
@@ -758,31 +1122,31 @@
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B6" s="2" t="n">
+    <row r="6" spans="1:41" ht="15" customHeight="1">
+      <c r="A6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B6" s="2">
         <v>0.4</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="C6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.4</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4" t="n">
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
         <v>6</v>
       </c>
       <c r="K6" s="4"/>
@@ -817,31 +1181,31 @@
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="2" t="n">
+    <row r="7" spans="1:41" ht="15" customHeight="1">
+      <c r="A7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.4</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>0.4</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4" t="n">
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
         <v>7</v>
       </c>
       <c r="K7" s="4"/>
@@ -876,31 +1240,31 @@
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B8" s="2" t="n">
+    <row r="8" spans="1:41" ht="15" customHeight="1">
+      <c r="A8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B8" s="2">
         <v>0.5</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>0.2</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2">
         <v>0.2</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" s="4" t="n">
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4">
         <v>8</v>
       </c>
       <c r="K8" s="4"/>
@@ -935,31 +1299,31 @@
       <c r="AN8" s="4"/>
       <c r="AO8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B9" s="2" t="n">
+    <row r="9" spans="1:41" ht="15" customHeight="1">
+      <c r="A9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B9" s="2">
         <v>0.2</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>0.5</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>0.2</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" s="4" t="n">
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4">
         <v>9</v>
       </c>
       <c r="K9" s="4"/>
@@ -994,31 +1358,31 @@
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B10" s="2" t="n">
+    <row r="10" spans="1:41" ht="15" customHeight="1">
+      <c r="A10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B10" s="2">
         <v>0.2</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>0.2</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2">
         <v>0.5</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4" t="n">
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
         <v>10</v>
       </c>
       <c r="K10" s="4"/>
@@ -1053,31 +1417,31 @@
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B11" s="2" t="n">
+    <row r="11" spans="1:41" ht="15" customHeight="1">
+      <c r="A11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B11" s="2">
         <v>0.7</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="2" t="n">
+      <c r="C11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="2">
         <v>0.1</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" s="4" t="n">
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+      <c r="J11" s="4">
         <v>11</v>
       </c>
       <c r="K11" s="4"/>
@@ -1112,31 +1476,31 @@
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="2" t="n">
+    <row r="12" spans="1:41" ht="15" customHeight="1">
+      <c r="A12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="2">
         <v>0.7</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2">
         <v>0.1</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" s="4" t="n">
+      <c r="G12" s="2">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
         <v>12</v>
       </c>
       <c r="K12" s="4"/>
@@ -1171,31 +1535,31 @@
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D13" s="2" t="n">
+    <row r="13" spans="1:41" ht="15" customHeight="1">
+      <c r="A13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="2">
         <v>0.7</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4" t="n">
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
         <v>13</v>
       </c>
       <c r="K13" s="4"/>
@@ -1230,31 +1594,31 @@
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:41" ht="15" customHeight="1">
+      <c r="A14" s="2">
         <v>0.4</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>0.4</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D14" s="2" t="n">
+      <c r="C14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="2">
         <v>0.1</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" s="4" t="n">
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3</v>
+      </c>
+      <c r="J14" s="4">
         <v>14</v>
       </c>
       <c r="K14" s="4"/>
@@ -1289,31 +1653,31 @@
       <c r="AN14" s="4"/>
       <c r="AO14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:41" ht="15" customHeight="1">
+      <c r="A15" s="2">
         <v>0.4</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="2" t="n">
+      <c r="B15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="2">
         <v>0.4</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="2">
         <v>0.1</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" s="4" t="n">
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+      <c r="J15" s="4">
         <v>15</v>
       </c>
       <c r="K15" s="4"/>
@@ -1348,31 +1712,31 @@
       <c r="AN15" s="4"/>
       <c r="AO15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:41" ht="15" customHeight="1">
+      <c r="A16" s="2">
         <v>0.4</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D16" s="2" t="n">
+      <c r="B16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="2">
         <v>0.4</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" s="4" t="n">
+      <c r="G16" s="2">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" s="4">
         <v>16</v>
       </c>
       <c r="K16" s="4"/>
@@ -1407,31 +1771,31 @@
       <c r="AN16" s="4"/>
       <c r="AO16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:41" ht="15" customHeight="1">
+      <c r="A17" s="2">
         <v>0.15</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>0.15</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>0.3</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="2">
         <v>0.4</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4" t="n">
+      <c r="G17" s="2">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
         <v>17</v>
       </c>
       <c r="K17" s="4"/>
@@ -1466,31 +1830,31 @@
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:41" ht="15" customHeight="1">
+      <c r="A18" s="2">
         <v>0.15</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>0.15</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2">
         <v>0.4</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="2">
         <v>0.3</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" s="4" t="n">
+      <c r="G18" s="2">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+      <c r="J18" s="4">
         <v>18</v>
       </c>
       <c r="K18" s="4"/>
@@ -1525,31 +1889,31 @@
       <c r="AN18" s="4"/>
       <c r="AO18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:41" ht="15" customHeight="1">
+      <c r="A19" s="2">
         <v>0.15</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>0.4</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>0.15</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="2">
         <v>0.3</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" s="4" t="n">
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2</v>
+      </c>
+      <c r="J19" s="4">
         <v>19</v>
       </c>
       <c r="K19" s="4"/>
@@ -1584,31 +1948,31 @@
       <c r="AN19" s="4"/>
       <c r="AO19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:41" ht="15" customHeight="1">
+      <c r="A20" s="2">
         <v>0.15</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="2">
         <v>0.3</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="2">
         <v>0.15</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="2">
         <v>0.4</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="4" t="n">
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
         <v>20</v>
       </c>
       <c r="K20" s="4"/>
@@ -1643,31 +2007,31 @@
       <c r="AN20" s="4"/>
       <c r="AO20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:41" ht="15" customHeight="1">
+      <c r="A21" s="2">
         <v>0.15</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>0.3</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>0.4</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="2">
         <v>0.15</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" s="4" t="n">
+      <c r="G21" s="2">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>3</v>
+      </c>
+      <c r="J21" s="4">
         <v>21</v>
       </c>
       <c r="K21" s="4"/>
@@ -1702,31 +2066,31 @@
       <c r="AN21" s="8"/>
       <c r="AO21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:41" ht="15" customHeight="1">
+      <c r="A22" s="2">
         <v>0.15</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="2">
         <v>0.4</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="2">
         <v>0.3</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="2">
         <v>0.15</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J22" s="4" t="n">
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2</v>
+      </c>
+      <c r="I22" s="2">
+        <v>3</v>
+      </c>
+      <c r="J22" s="4">
         <v>22</v>
       </c>
       <c r="K22" s="4"/>
@@ -1761,31 +2125,31 @@
       <c r="AN22" s="8"/>
       <c r="AO22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:41" ht="15" customHeight="1">
+      <c r="A23" s="2">
         <v>0.3</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="2">
         <v>0.3</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="2">
         <v>0.3</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="2">
         <v>0.1</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J23" s="4" t="n">
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>3</v>
+      </c>
+      <c r="J23" s="4">
         <v>23</v>
       </c>
       <c r="K23" s="4"/>
@@ -1820,31 +2184,31 @@
       <c r="AN23" s="8"/>
       <c r="AO23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:41" ht="15" customHeight="1">
+      <c r="A24" s="2">
         <v>0.3</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="2">
         <v>0.3</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D24" s="2" t="n">
+      <c r="C24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="2">
         <v>0.3</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" s="4" t="n">
+      <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" s="4">
         <v>24</v>
       </c>
       <c r="K24" s="4"/>
@@ -1879,31 +2243,31 @@
       <c r="AN24" s="4"/>
       <c r="AO24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:41" ht="15" customHeight="1">
+      <c r="A25" s="2">
         <v>0.3</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="2" t="n">
+      <c r="B25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="2">
         <v>0.3</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="2">
         <v>0.3</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J25" s="4" t="n">
+      <c r="G25" s="2">
+        <v>3</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2</v>
+      </c>
+      <c r="J25" s="4">
         <v>25</v>
       </c>
       <c r="K25" s="4"/>
@@ -1938,31 +2302,31 @@
       <c r="AN25" s="4"/>
       <c r="AO25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:41" ht="15" customHeight="1">
+      <c r="A26" s="2">
         <v>0.25</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="2">
         <v>0.25</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="2">
         <v>0.25</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="2">
         <v>0.25</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J26" s="4" t="n">
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2</v>
+      </c>
+      <c r="J26" s="4">
         <v>26</v>
       </c>
       <c r="K26" s="4"/>
@@ -1997,31 +2361,31 @@
       <c r="AN26" s="4"/>
       <c r="AO26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:41" ht="15" customHeight="1">
+      <c r="A27" s="2">
         <v>0.7</v>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D27" s="2" t="n">
+      <c r="B27" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D27" s="2">
         <v>0.1</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" s="4" t="n">
+      <c r="G27" s="2">
+        <v>3</v>
+      </c>
+      <c r="H27" s="2">
+        <v>3</v>
+      </c>
+      <c r="I27" s="2">
+        <v>3</v>
+      </c>
+      <c r="J27" s="4">
         <v>27</v>
       </c>
       <c r="K27" s="4"/>
@@ -2056,79 +2420,52 @@
       <c r="AN27" s="4"/>
       <c r="AO27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" spans="1:41" ht="15" customHeight="1"/>
+    <row r="29" spans="1:41" ht="15" customHeight="1"/>
+    <row r="30" spans="1:41" ht="15" customHeight="1"/>
+    <row r="31" spans="1:41" ht="15" customHeight="1"/>
+    <row r="32" spans="1:41" ht="15" customHeight="1"/>
+    <row r="33" ht="15" customHeight="1"/>
+    <row r="34" ht="15" customHeight="1"/>
+    <row r="35" ht="15" customHeight="1"/>
+    <row r="87" ht="15" customHeight="1"/>
+    <row r="88" ht="15" customHeight="1"/>
+    <row r="89" ht="15" customHeight="1"/>
+    <row r="90" ht="15" customHeight="1"/>
+    <row r="91" ht="15" customHeight="1"/>
+    <row r="92" ht="15" customHeight="1"/>
+    <row r="93" ht="15" customHeight="1"/>
+    <row r="94" ht="15" customHeight="1"/>
+    <row r="95" ht="15" customHeight="1"/>
+    <row r="96" ht="15" customHeight="1"/>
+    <row r="97" ht="15" customHeight="1"/>
+    <row r="98" ht="15" customHeight="1"/>
+    <row r="99" ht="15" customHeight="1"/>
+    <row r="100" ht="15" customHeight="1"/>
+    <row r="101" ht="15" customHeight="1"/>
+    <row r="102" ht="15" customHeight="1"/>
+    <row r="103" ht="15" customHeight="1"/>
+    <row r="104" ht="15" customHeight="1"/>
+    <row r="105" ht="15" customHeight="1"/>
+    <row r="106" ht="15" customHeight="1"/>
+    <row r="107" ht="15" customHeight="1"/>
+    <row r="108" ht="15" customHeight="1"/>
+    <row r="109" ht="15" customHeight="1"/>
+    <row r="110" ht="15" customHeight="1"/>
+    <row r="111" ht="15" customHeight="1"/>
+    <row r="112" ht="15" customHeight="1"/>
+    <row r="113" ht="15" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="Y87:AA113">
-    <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="M" dxfId="0"/>
-    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="A" dxfId="1"/>
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="M"/>
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="A"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF87:AF113">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF3715A"/>
         <color rgb="FFFFF685"/>
         <color rgb="FF1B75BC"/>
@@ -2136,15 +2473,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:AI31">
-    <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="M" dxfId="1"/>
-    <cfRule type="containsText" priority="6" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="A" dxfId="2"/>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="M"/>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="A"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN5:AN31">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF3715A"/>
         <color rgb="FFFFF685"/>
         <color rgb="FF1B75BC"/>
@@ -2154,9 +2491,9 @@
   <conditionalFormatting sqref="AO5:AO31">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF3715A"/>
         <color rgb="FFFFF450"/>
         <color rgb="FF1B75BC"/>
@@ -2164,22 +2501,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM4">
-    <cfRule type="containsText" priority="9" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="M" dxfId="3"/>
-    <cfRule type="containsText" priority="10" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="A" dxfId="4"/>
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="M"/>
+    <cfRule type="containsText" dxfId="4" priority="10" operator="containsText" text="A"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN4">
-    <cfRule type="containsText" priority="11" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="M" dxfId="5"/>
-    <cfRule type="containsText" priority="12" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="A" dxfId="6"/>
+    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="M"/>
+    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="A"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO4">
-    <cfRule type="containsText" priority="13" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="M" dxfId="7"/>
-    <cfRule type="containsText" priority="14" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="A" dxfId="8"/>
+    <cfRule type="containsText" dxfId="1" priority="13" operator="containsText" text="M"/>
+    <cfRule type="containsText" dxfId="0" priority="14" operator="containsText" text="A"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36:M62">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFF7128"/>
         <color rgb="FF3366FF"/>
       </colorScale>
@@ -2188,8 +2525,8 @@
   <conditionalFormatting sqref="J53:L62 K36:L52">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFF7128"/>
         <color rgb="FF3366FF"/>
       </colorScale>
@@ -2198,8 +2535,8 @@
   <conditionalFormatting sqref="D1:D27">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFF7128"/>
         <color rgb="FF3366FF"/>
       </colorScale>
@@ -2208,8 +2545,8 @@
   <conditionalFormatting sqref="A1:C27">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFF7128"/>
         <color rgb="FF3366FF"/>
       </colorScale>
@@ -2218,8 +2555,8 @@
   <conditionalFormatting sqref="J36:J52">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFF7128"/>
         <color rgb="FF3366FF"/>
       </colorScale>
@@ -2228,8 +2565,8 @@
   <conditionalFormatting sqref="G1:I25 G26:G27">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFF7128"/>
         <color rgb="FF3366FF"/>
       </colorScale>
@@ -2238,67 +2575,65 @@
   <conditionalFormatting sqref="H26:I27">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFF7128"/>
         <color rgb="FF3366FF"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AR34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M7" activeCellId="1" sqref="G1:I27 M7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="4.91"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B1" s="10" t="n">
+    <row r="1" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A1" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="B1" s="10">
         <v>0.3</v>
       </c>
-      <c r="C1" s="10" t="n">
+      <c r="C1" s="10">
         <v>0.3</v>
       </c>
-      <c r="D1" s="10" t="n">
+      <c r="D1" s="10">
         <v>0.3</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B2" s="10" t="n">
+    <row r="2" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A2" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="10">
         <v>0.35</v>
       </c>
-      <c r="C2" s="10" t="n">
+      <c r="C2" s="10">
         <v>0.35</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="10">
         <v>0.2</v>
       </c>
       <c r="E2" s="3"/>
@@ -2338,17 +2673,17 @@
       <c r="AQ2" s="12"/>
       <c r="AR2" s="12"/>
     </row>
-    <row r="3" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B3" s="10" t="n">
+    <row r="3" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A3" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="10">
         <v>0.35</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="10">
         <v>0.2</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="10">
         <v>0.35</v>
       </c>
       <c r="E3" s="3"/>
@@ -2359,100 +2694,100 @@
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
-      <c r="Q3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="2" t="n">
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>2</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>3</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1</v>
+      </c>
+      <c r="X3" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="22">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="2">
         <v>3</v>
       </c>
       <c r="AR3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B4" s="10" t="n">
+    <row r="4" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A4" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="10">
         <v>0.2</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="10">
         <v>0.35</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="10">
         <v>0.35</v>
       </c>
       <c r="E4" s="6"/>
@@ -2463,100 +2798,100 @@
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
-      <c r="Q4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ4" s="2" t="n">
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>2</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2">
+        <v>3</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1</v>
+      </c>
+      <c r="X4" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="22">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>3</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>3</v>
+      </c>
+      <c r="AQ4" s="2">
         <v>3</v>
       </c>
       <c r="AR4" s="12"/>
     </row>
-    <row r="5" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B5" s="10" t="n">
+    <row r="5" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A5" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="B5" s="10">
         <v>0.4</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="10">
         <v>0.4</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="10">
         <v>0.1</v>
       </c>
       <c r="E5" s="14"/>
@@ -2567,100 +2902,100 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
-      <c r="Q5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ5" s="2" t="n">
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>2</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2">
+        <v>3</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>3</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>3</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="2">
         <v>3</v>
       </c>
       <c r="AR5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B6" s="10" t="n">
+    <row r="6" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A6" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="B6" s="10">
         <v>0.4</v>
       </c>
-      <c r="C6" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="10" t="n">
+      <c r="C6" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="10">
         <v>0.4</v>
       </c>
       <c r="E6" s="3"/>
@@ -2671,123 +3006,135 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
-      <c r="Q6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="S6" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T6" s="3" t="n">
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3">
+        <v>2</v>
+      </c>
+      <c r="S6" s="3">
+        <v>3</v>
+      </c>
+      <c r="T6" s="3">
         <v>4</v>
       </c>
-      <c r="U6" s="3" t="n">
+      <c r="U6" s="3">
         <v>5</v>
       </c>
-      <c r="V6" s="3" t="n">
+      <c r="V6" s="3">
         <v>6</v>
       </c>
-      <c r="W6" s="3" t="n">
+      <c r="W6" s="3">
         <v>7</v>
       </c>
-      <c r="X6" s="3" t="n">
+      <c r="X6" s="3">
         <v>8</v>
       </c>
-      <c r="Y6" s="3" t="n">
+      <c r="Y6" s="3">
         <v>9</v>
       </c>
-      <c r="Z6" s="3" t="n">
+      <c r="Z6" s="3">
         <v>10</v>
       </c>
-      <c r="AA6" s="3" t="n">
+      <c r="AA6" s="3">
         <v>11</v>
       </c>
-      <c r="AB6" s="3" t="n">
+      <c r="AB6" s="3">
         <v>12</v>
       </c>
-      <c r="AC6" s="3" t="n">
+      <c r="AC6" s="3">
         <v>13</v>
       </c>
-      <c r="AD6" s="3" t="n">
+      <c r="AD6" s="3">
         <v>14</v>
       </c>
-      <c r="AE6" s="3" t="n">
+      <c r="AE6" s="3">
         <v>15</v>
       </c>
-      <c r="AF6" s="3" t="n">
+      <c r="AF6" s="3">
         <v>16</v>
       </c>
-      <c r="AG6" s="3" t="n">
+      <c r="AG6" s="3">
         <v>17</v>
       </c>
-      <c r="AH6" s="3" t="n">
+      <c r="AH6" s="3">
         <v>18</v>
       </c>
-      <c r="AI6" s="3" t="n">
+      <c r="AI6" s="3">
         <v>19</v>
       </c>
-      <c r="AJ6" s="3" t="n">
+      <c r="AJ6" s="3">
         <v>20</v>
       </c>
-      <c r="AK6" s="3" t="n">
+      <c r="AK6" s="3">
         <v>21</v>
       </c>
-      <c r="AL6" s="3" t="n">
+      <c r="AL6" s="3">
         <v>22</v>
       </c>
-      <c r="AM6" s="3" t="n">
+      <c r="AM6" s="3">
         <v>23</v>
       </c>
-      <c r="AN6" s="3" t="n">
+      <c r="AN6" s="3">
         <v>24</v>
       </c>
-      <c r="AO6" s="3" t="n">
+      <c r="AO6" s="3">
         <v>25</v>
       </c>
-      <c r="AP6" s="3" t="n">
+      <c r="AP6" s="3">
         <v>26</v>
       </c>
-      <c r="AQ6" s="3" t="n">
+      <c r="AQ6" s="3">
         <v>27</v>
       </c>
       <c r="AR6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B7" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="10" t="n">
+    <row r="7" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A7" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="10">
         <v>0.4</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="10">
         <v>0.4</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="K7" s="11"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="13">
+        <f>+IF(M7=1,0.6,IF(M7=2,0.3,0.1))</f>
+        <v>0.6</v>
+      </c>
+      <c r="R7" s="13">
+        <f t="shared" ref="R7:S7" si="0">+IF(N7=1,0.6,IF(N7=2,0.3,0.1))</f>
+        <v>0.6</v>
+      </c>
+      <c r="S7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
       <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
+      <c r="U7" s="13">
+        <f>Q7*R7*S7</f>
+        <v>0.216</v>
+      </c>
       <c r="V7" s="13"/>
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
@@ -2812,40 +3159,52 @@
       <c r="AQ7" s="13"/>
       <c r="AR7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B8" s="10" t="n">
+    <row r="8" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A8" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="B8" s="10">
         <v>0.5</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="10">
         <v>0.2</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="10">
         <v>0.2</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="K8" s="11"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
+      <c r="M8" s="2">
+        <v>2</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="13">
+        <f t="shared" ref="Q8:Q33" si="1">+IF(M8=1,0.6,IF(M8=2,0.3,0.1))</f>
+        <v>0.3</v>
+      </c>
+      <c r="R8" s="13">
+        <f t="shared" ref="R8:R33" si="2">+IF(N8=1,0.6,IF(N8=2,0.3,0.1))</f>
+        <v>0.6</v>
+      </c>
+      <c r="S8" s="13">
+        <f t="shared" ref="S8:S33" si="3">+IF(O8=1,0.6,IF(O8=2,0.3,0.1))</f>
+        <v>0.6</v>
+      </c>
       <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
+      <c r="U8" s="13">
+        <f t="shared" ref="U8:U33" si="4">Q8*R8*S8</f>
+        <v>0.108</v>
+      </c>
       <c r="V8" s="13"/>
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
@@ -2870,40 +3229,52 @@
       <c r="AQ8" s="13"/>
       <c r="AR8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B9" s="10" t="n">
+    <row r="9" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A9" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="B9" s="10">
         <v>0.2</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="10">
         <v>0.5</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="10">
         <v>0.2</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="K9" s="11"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="13">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="R9" s="13">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="S9" s="13">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
       <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
+      <c r="U9" s="13">
+        <f t="shared" si="4"/>
+        <v>0.108</v>
+      </c>
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -2928,40 +3299,52 @@
       <c r="AQ9" s="13"/>
       <c r="AR9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B10" s="10" t="n">
+    <row r="10" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A10" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="B10" s="10">
         <v>0.2</v>
       </c>
-      <c r="C10" s="10" t="n">
+      <c r="C10" s="10">
         <v>0.2</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="10">
         <v>0.5</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="K10" s="11"/>
       <c r="L10" s="12"/>
-      <c r="M10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="3" t="n">
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2</v>
+      </c>
+      <c r="P10" s="3">
         <v>4</v>
       </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
+      <c r="Q10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="R10" s="13">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="S10" s="13">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
       <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
+      <c r="U10" s="13">
+        <f t="shared" si="4"/>
+        <v>0.108</v>
+      </c>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -2986,40 +3369,52 @@
       <c r="AQ10" s="13"/>
       <c r="AR10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B11" s="10" t="n">
+    <row r="11" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A11" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="B11" s="10">
         <v>0.7</v>
       </c>
-      <c r="C11" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="10" t="n">
+      <c r="C11" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="10">
         <v>0.1</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="K11" s="11"/>
       <c r="L11" s="12"/>
-      <c r="M11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P11" s="3" t="n">
+      <c r="M11" s="2">
+        <v>3</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
         <v>5</v>
       </c>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
+      <c r="Q11" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="R11" s="13">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="S11" s="13">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
       <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
+      <c r="U11" s="13">
+        <f t="shared" si="4"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
@@ -3044,40 +3439,52 @@
       <c r="AQ11" s="13"/>
       <c r="AR11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B12" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="10" t="n">
+    <row r="12" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A12" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="10">
         <v>0.7</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="10">
         <v>0.1</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="K12" s="11"/>
       <c r="L12" s="12"/>
-      <c r="M12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="3" t="n">
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>3</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
         <v>6</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
+      <c r="Q12" s="13">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="R12" s="13">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="S12" s="13">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
       <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
+      <c r="U12" s="13">
+        <f t="shared" si="4"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
@@ -3102,40 +3509,52 @@
       <c r="AQ12" s="13"/>
       <c r="AR12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B13" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C13" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D13" s="10" t="n">
+    <row r="13" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A13" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="10">
         <v>0.7</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="K13" s="11"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="3" t="n">
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>3</v>
+      </c>
+      <c r="P13" s="3">
         <v>7</v>
       </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
+      <c r="Q13" s="13">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="R13" s="13">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="S13" s="13">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
       <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
+      <c r="U13" s="13">
+        <f t="shared" si="4"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
@@ -3160,40 +3579,52 @@
       <c r="AQ13" s="13"/>
       <c r="AR13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="n">
+    <row r="14" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A14" s="10">
         <v>0.4</v>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="10">
         <v>0.4</v>
       </c>
-      <c r="C14" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D14" s="10" t="n">
+      <c r="C14" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="10">
         <v>0.1</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="K14" s="11"/>
       <c r="L14" s="12"/>
-      <c r="M14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" s="3" t="n">
+      <c r="M14" s="2">
+        <v>2</v>
+      </c>
+      <c r="N14" s="2">
+        <v>2</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
         <v>8</v>
       </c>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
+      <c r="Q14" s="13">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="R14" s="13">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="S14" s="13">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
       <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
+      <c r="U14" s="13">
+        <f t="shared" si="4"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
@@ -3218,40 +3649,52 @@
       <c r="AQ14" s="13"/>
       <c r="AR14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="n">
+    <row r="15" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A15" s="10">
         <v>0.4</v>
       </c>
-      <c r="B15" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="10" t="n">
+      <c r="B15" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="10">
         <v>0.4</v>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D15" s="10">
         <v>0.1</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="K15" s="11"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P15" s="3" t="n">
+      <c r="M15" s="2">
+        <v>2</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>2</v>
+      </c>
+      <c r="P15" s="3">
         <v>9</v>
       </c>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
+      <c r="Q15" s="13">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="R15" s="13">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="S15" s="13">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
       <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
+      <c r="U15" s="13">
+        <f t="shared" si="4"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -3276,40 +3719,52 @@
       <c r="AQ15" s="13"/>
       <c r="AR15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="n">
+    <row r="16" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A16" s="10">
         <v>0.4</v>
       </c>
-      <c r="B16" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D16" s="10" t="n">
+      <c r="B16" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="10">
         <v>0.4</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="K16" s="11"/>
       <c r="L16" s="12"/>
-      <c r="M16" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="3" t="n">
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2</v>
+      </c>
+      <c r="O16" s="2">
+        <v>2</v>
+      </c>
+      <c r="P16" s="3">
         <v>10</v>
       </c>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
+      <c r="Q16" s="13">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="R16" s="13">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="S16" s="13">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
       <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
+      <c r="U16" s="13">
+        <f t="shared" si="4"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
       <c r="V16" s="13"/>
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
@@ -3334,40 +3789,52 @@
       <c r="AQ16" s="13"/>
       <c r="AR16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="n">
+    <row r="17" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A17" s="10">
         <v>0.15</v>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="10">
         <v>0.15</v>
       </c>
-      <c r="C17" s="10" t="n">
+      <c r="C17" s="10">
         <v>0.3</v>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="10">
         <v>0.4</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="K17" s="11"/>
       <c r="L17" s="12"/>
-      <c r="M17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O17" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="n">
+      <c r="M17" s="22">
+        <v>3</v>
+      </c>
+      <c r="N17" s="22">
+        <v>2</v>
+      </c>
+      <c r="O17" s="22">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3">
         <v>11</v>
       </c>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
+      <c r="Q17" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="R17" s="13">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="S17" s="13">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
       <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
+      <c r="U17" s="13">
+        <f t="shared" si="4"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="V17" s="13"/>
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
@@ -3392,40 +3859,52 @@
       <c r="AQ17" s="13"/>
       <c r="AR17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="n">
+    <row r="18" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A18" s="10">
         <v>0.15</v>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="10">
         <v>0.15</v>
       </c>
-      <c r="C18" s="10" t="n">
+      <c r="C18" s="10">
         <v>0.4</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="10">
         <v>0.3</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="K18" s="11"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="n">
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>3</v>
+      </c>
+      <c r="O18" s="2">
+        <v>2</v>
+      </c>
+      <c r="P18" s="3">
         <v>12</v>
       </c>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
+      <c r="Q18" s="13">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="R18" s="13">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="S18" s="13">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
       <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
+      <c r="U18" s="13">
+        <f t="shared" si="4"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
@@ -3450,40 +3929,52 @@
       <c r="AQ18" s="13"/>
       <c r="AR18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="n">
+    <row r="19" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A19" s="10">
         <v>0.15</v>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B19" s="10">
         <v>0.4</v>
       </c>
-      <c r="C19" s="10" t="n">
+      <c r="C19" s="10">
         <v>0.15</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="10">
         <v>0.3</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="K19" s="11"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="3" t="n">
+      <c r="M19" s="2">
+        <v>2</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2">
+        <v>3</v>
+      </c>
+      <c r="P19" s="3">
         <v>13</v>
       </c>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
+      <c r="Q19" s="13">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="R19" s="13">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="S19" s="13">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
       <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
+      <c r="U19" s="13">
+        <f t="shared" si="4"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="V19" s="13"/>
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
@@ -3508,40 +3999,52 @@
       <c r="AQ19" s="13"/>
       <c r="AR19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="n">
+    <row r="20" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A20" s="10">
         <v>0.15</v>
       </c>
-      <c r="B20" s="10" t="n">
+      <c r="B20" s="10">
         <v>0.3</v>
       </c>
-      <c r="C20" s="10" t="n">
+      <c r="C20" s="10">
         <v>0.15</v>
       </c>
-      <c r="D20" s="10" t="n">
+      <c r="D20" s="10">
         <v>0.4</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="K20" s="11"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O20" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="n">
+      <c r="M20" s="2">
+        <v>2</v>
+      </c>
+      <c r="N20" s="2">
+        <v>2</v>
+      </c>
+      <c r="O20" s="2">
+        <v>2</v>
+      </c>
+      <c r="P20" s="3">
         <v>14</v>
       </c>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
+      <c r="Q20" s="13">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="R20" s="13">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="S20" s="13">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
       <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
+      <c r="U20" s="13">
+        <f t="shared" si="4"/>
+        <v>2.7E-2</v>
+      </c>
       <c r="V20" s="13"/>
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
@@ -3566,40 +4069,52 @@
       <c r="AQ20" s="13"/>
       <c r="AR20" s="12"/>
     </row>
-    <row r="21" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="n">
+    <row r="21" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A21" s="10">
         <v>0.15</v>
       </c>
-      <c r="B21" s="10" t="n">
+      <c r="B21" s="10">
         <v>0.3</v>
       </c>
-      <c r="C21" s="10" t="n">
+      <c r="C21" s="10">
         <v>0.4</v>
       </c>
-      <c r="D21" s="10" t="n">
+      <c r="D21" s="10">
         <v>0.15</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="K21" s="11"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O21" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3" t="n">
+      <c r="M21" s="2">
+        <v>3</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2">
+        <v>2</v>
+      </c>
+      <c r="P21" s="3">
         <v>15</v>
       </c>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
+      <c r="Q21" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="R21" s="13">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="S21" s="13">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
       <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
+      <c r="U21" s="13">
+        <f t="shared" si="4"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="V21" s="13"/>
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
@@ -3624,40 +4139,52 @@
       <c r="AQ21" s="13"/>
       <c r="AR21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="n">
+    <row r="22" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A22" s="10">
         <v>0.15</v>
       </c>
-      <c r="B22" s="10" t="n">
+      <c r="B22" s="10">
         <v>0.4</v>
       </c>
-      <c r="C22" s="10" t="n">
+      <c r="C22" s="10">
         <v>0.3</v>
       </c>
-      <c r="D22" s="10" t="n">
+      <c r="D22" s="10">
         <v>0.15</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="K22" s="11"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P22" s="3" t="n">
+      <c r="M22" s="2">
+        <v>2</v>
+      </c>
+      <c r="N22" s="2">
+        <v>3</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3">
         <v>16</v>
       </c>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
+      <c r="Q22" s="13">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="R22" s="13">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="S22" s="13">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
       <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
+      <c r="U22" s="13">
+        <f t="shared" si="4"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="V22" s="13"/>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
@@ -3682,40 +4209,52 @@
       <c r="AQ22" s="13"/>
       <c r="AR22" s="12"/>
     </row>
-    <row r="23" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="n">
+    <row r="23" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A23" s="10">
         <v>0.3</v>
       </c>
-      <c r="B23" s="10" t="n">
+      <c r="B23" s="10">
         <v>0.3</v>
       </c>
-      <c r="C23" s="10" t="n">
+      <c r="C23" s="10">
         <v>0.3</v>
       </c>
-      <c r="D23" s="10" t="n">
+      <c r="D23" s="10">
         <v>0.1</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="K23" s="11"/>
       <c r="L23" s="12"/>
-      <c r="M23" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="3" t="n">
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2">
+        <v>2</v>
+      </c>
+      <c r="O23" s="2">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3">
         <v>17</v>
       </c>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
+      <c r="Q23" s="13">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="R23" s="13">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="S23" s="13">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
       <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
+      <c r="U23" s="13">
+        <f t="shared" si="4"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
@@ -3740,40 +4279,54 @@
       <c r="AQ23" s="13"/>
       <c r="AR23" s="12"/>
     </row>
-    <row r="24" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="n">
+    <row r="24" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A24" s="10">
         <v>0.3</v>
       </c>
-      <c r="B24" s="10" t="n">
+      <c r="B24" s="10">
         <v>0.3</v>
       </c>
-      <c r="C24" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D24" s="10" t="n">
+      <c r="C24" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="10">
         <v>0.3</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
       <c r="K24" s="11"/>
       <c r="L24" s="12"/>
-      <c r="M24" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P24" s="3" t="n">
+      <c r="M24" s="2">
+        <v>3</v>
+      </c>
+      <c r="N24" s="2">
+        <v>2</v>
+      </c>
+      <c r="O24" s="2">
+        <v>2</v>
+      </c>
+      <c r="P24" s="3">
         <v>18</v>
       </c>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
+      <c r="Q24" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="R24" s="13">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="S24" s="13">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
       <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
+      <c r="U24" s="13">
+        <f t="shared" si="4"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="V24" s="13"/>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
@@ -3798,40 +4351,54 @@
       <c r="AQ24" s="13"/>
       <c r="AR24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="n">
+    <row r="25" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A25" s="10">
         <v>0.3</v>
       </c>
-      <c r="B25" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="10" t="n">
+      <c r="B25" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="10">
         <v>0.3</v>
       </c>
-      <c r="D25" s="10" t="n">
+      <c r="D25" s="10">
         <v>0.3</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
       <c r="K25" s="11"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O25" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P25" s="3" t="n">
+      <c r="M25" s="2">
+        <v>2</v>
+      </c>
+      <c r="N25" s="2">
+        <v>3</v>
+      </c>
+      <c r="O25" s="2">
+        <v>2</v>
+      </c>
+      <c r="P25" s="3">
         <v>19</v>
       </c>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
+      <c r="Q25" s="13">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="R25" s="13">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="S25" s="13">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
       <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
+      <c r="U25" s="13">
+        <f t="shared" si="4"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="V25" s="13"/>
       <c r="W25" s="13"/>
       <c r="X25" s="13"/>
@@ -3856,40 +4423,53 @@
       <c r="AQ25" s="13"/>
       <c r="AR25" s="12"/>
     </row>
-    <row r="26" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="n">
+    <row r="26" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A26" s="10">
         <v>0.25</v>
       </c>
-      <c r="B26" s="10" t="n">
+      <c r="B26" s="10">
         <v>0.25</v>
       </c>
-      <c r="C26" s="10" t="n">
+      <c r="C26" s="10">
         <v>0.25</v>
       </c>
-      <c r="D26" s="10" t="n">
+      <c r="D26" s="10">
         <v>0.25</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="K26" s="11"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
       <c r="L26" s="12"/>
-      <c r="M26" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="3" t="n">
+      <c r="M26" s="2">
+        <v>2</v>
+      </c>
+      <c r="N26" s="2">
+        <v>2</v>
+      </c>
+      <c r="O26" s="2">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3">
         <v>20</v>
       </c>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
+      <c r="Q26" s="13">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="R26" s="13">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="S26" s="13">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
       <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
+      <c r="U26" s="13">
+        <f t="shared" si="4"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="V26" s="13"/>
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
@@ -3914,40 +4494,53 @@
       <c r="AQ26" s="13"/>
       <c r="AR26" s="12"/>
     </row>
-    <row r="27" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="n">
+    <row r="27" spans="1:44" ht="17.5" customHeight="1">
+      <c r="A27" s="10">
         <v>0.7</v>
       </c>
-      <c r="B27" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D27" s="10" t="n">
+      <c r="B27" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D27" s="10">
         <v>0.1</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="K27" s="11"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
       <c r="L27" s="12"/>
-      <c r="M27" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="n">
+      <c r="M27" s="2">
+        <v>3</v>
+      </c>
+      <c r="N27" s="2">
+        <v>3</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3">
         <v>21</v>
       </c>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
+      <c r="Q27" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="R27" s="13">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="S27" s="13">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
       <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
+      <c r="U27" s="13">
+        <f t="shared" si="4"/>
+        <v>6.000000000000001E-3</v>
+      </c>
       <c r="V27" s="13"/>
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
@@ -3972,28 +4565,43 @@
       <c r="AQ27" s="13"/>
       <c r="AR27" s="12"/>
     </row>
-    <row r="28" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:44" ht="17.5" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
       <c r="L28" s="12"/>
-      <c r="M28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O28" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P28" s="3" t="n">
+      <c r="M28" s="2">
+        <v>3</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2">
+        <v>3</v>
+      </c>
+      <c r="P28" s="3">
         <v>22</v>
       </c>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
+      <c r="Q28" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="R28" s="13">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="S28" s="13">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
       <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
+      <c r="U28" s="13">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="V28" s="13"/>
       <c r="W28" s="13"/>
       <c r="X28" s="13"/>
@@ -4018,28 +4626,43 @@
       <c r="AQ28" s="13"/>
       <c r="AR28" s="12"/>
     </row>
-    <row r="29" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:44" ht="17.5" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="L29" s="12"/>
-      <c r="M29" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O29" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P29" s="3" t="n">
+      <c r="M29" s="2">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2">
+        <v>3</v>
+      </c>
+      <c r="O29" s="2">
+        <v>3</v>
+      </c>
+      <c r="P29" s="3">
         <v>23</v>
       </c>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
+      <c r="Q29" s="13">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="R29" s="13">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="S29" s="13">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
       <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
+      <c r="U29" s="13">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="V29" s="13"/>
       <c r="W29" s="13"/>
       <c r="X29" s="13"/>
@@ -4064,28 +4687,40 @@
       <c r="AQ29" s="13"/>
       <c r="AR29" s="12"/>
     </row>
-    <row r="30" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:44" ht="17.5" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="L30" s="12"/>
-      <c r="M30" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O30" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P30" s="3" t="n">
+      <c r="M30" s="2">
+        <v>3</v>
+      </c>
+      <c r="N30" s="2">
+        <v>3</v>
+      </c>
+      <c r="O30" s="2">
+        <v>2</v>
+      </c>
+      <c r="P30" s="3">
         <v>24</v>
       </c>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
+      <c r="Q30" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="R30" s="13">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="S30" s="13">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
       <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
+      <c r="U30" s="13">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000005E-3</v>
+      </c>
       <c r="V30" s="13"/>
       <c r="W30" s="13"/>
       <c r="X30" s="13"/>
@@ -4110,28 +4745,40 @@
       <c r="AQ30" s="13"/>
       <c r="AR30" s="12"/>
     </row>
-    <row r="31" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:44" ht="17.5" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="L31" s="12"/>
-      <c r="M31" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O31" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P31" s="3" t="n">
+      <c r="M31" s="2">
+        <v>3</v>
+      </c>
+      <c r="N31" s="2">
+        <v>2</v>
+      </c>
+      <c r="O31" s="2">
+        <v>3</v>
+      </c>
+      <c r="P31" s="3">
         <v>25</v>
       </c>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
+      <c r="Q31" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="R31" s="13">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="S31" s="13">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
       <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
+      <c r="U31" s="13">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
       <c r="V31" s="13"/>
       <c r="W31" s="13"/>
       <c r="X31" s="13"/>
@@ -4156,28 +4803,40 @@
       <c r="AQ31" s="13"/>
       <c r="AR31" s="12"/>
     </row>
-    <row r="32" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:44" ht="17.5" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="L32" s="12"/>
-      <c r="M32" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O32" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P32" s="3" t="n">
+      <c r="M32" s="2">
+        <v>2</v>
+      </c>
+      <c r="N32" s="2">
+        <v>3</v>
+      </c>
+      <c r="O32" s="2">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
         <v>26</v>
       </c>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
+      <c r="Q32" s="13">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="R32" s="13">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="S32" s="13">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
       <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
+      <c r="U32" s="13">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
       <c r="X32" s="13"/>
@@ -4202,28 +4861,40 @@
       <c r="AQ32" s="13"/>
       <c r="AR32" s="12"/>
     </row>
-    <row r="33" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:44" ht="17.5" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="L33" s="12"/>
-      <c r="M33" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N33" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O33" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="n">
+      <c r="M33" s="2">
+        <v>3</v>
+      </c>
+      <c r="N33" s="2">
+        <v>3</v>
+      </c>
+      <c r="O33" s="2">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3">
         <v>27</v>
       </c>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
+      <c r="Q33" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="R33" s="13">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="S33" s="13">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
       <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
+      <c r="U33" s="13">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000002E-3</v>
+      </c>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
       <c r="X33" s="13"/>
@@ -4248,7 +4919,7 @@
       <c r="AQ33" s="13"/>
       <c r="AR33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:44" ht="17.5" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -4286,153 +4957,220 @@
       <c r="AQ34" s="12"/>
       <c r="AR34" s="12"/>
     </row>
+    <row r="35" spans="1:44">
+      <c r="U35" s="23">
+        <f>SUM(U7:U33)</f>
+        <v>1.0000000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D27">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFED1C24"/>
         <color rgb="FF21409A"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:AQ5">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="F24:H29">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
-        <color rgb="FF00CC00"/>
+        <color rgb="FF3366FF"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7:O33">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="M18:O19 M21:O24">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
-        <color rgb="FF00CC00"/>
+        <color rgb="FF3366FF"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <conditionalFormatting sqref="M25:O27 M30:O33 M20:O20 M7:O17">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF3366FF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M28:O29">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF3366FF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3:AC5 AE3:AH5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF3366FF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI3:AK5 AN3:AQ5 AD3:AD5 Q3:AA5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF3366FF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL3:AM5">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF3366FF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AY7" activeCellId="1" sqref="G1:I27 AY7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="AY7" activeCellId="1" sqref="G1:I27 AY7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="5.24"/>
+    <col min="1" max="1025" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:53" ht="24.25" customHeight="1">
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K1" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N1" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="O1" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P1" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R1" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="S1" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="T1" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="U1" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="V1" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="W1" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="X1" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y1" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z1" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA1" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB1" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC1" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD1" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE1" s="18" t="n">
+      <c r="E1" s="18">
+        <v>1</v>
+      </c>
+      <c r="F1" s="18">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18">
+        <v>1</v>
+      </c>
+      <c r="H1" s="18">
+        <v>1</v>
+      </c>
+      <c r="I1" s="18">
+        <v>1</v>
+      </c>
+      <c r="J1" s="18">
+        <v>1</v>
+      </c>
+      <c r="K1" s="18">
+        <v>1</v>
+      </c>
+      <c r="L1" s="18">
+        <v>1</v>
+      </c>
+      <c r="M1" s="18">
+        <v>1</v>
+      </c>
+      <c r="N1" s="18">
+        <v>2</v>
+      </c>
+      <c r="O1" s="18">
+        <v>2</v>
+      </c>
+      <c r="P1" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="18">
+        <v>2</v>
+      </c>
+      <c r="R1" s="18">
+        <v>2</v>
+      </c>
+      <c r="S1" s="18">
+        <v>2</v>
+      </c>
+      <c r="T1" s="18">
+        <v>2</v>
+      </c>
+      <c r="U1" s="18">
+        <v>2</v>
+      </c>
+      <c r="V1" s="18">
+        <v>2</v>
+      </c>
+      <c r="W1" s="18">
+        <v>3</v>
+      </c>
+      <c r="X1" s="18">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="18">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="18">
+        <v>3</v>
+      </c>
+      <c r="AA1" s="18">
+        <v>3</v>
+      </c>
+      <c r="AB1" s="18">
+        <v>3</v>
+      </c>
+      <c r="AC1" s="18">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="18">
+        <v>3</v>
+      </c>
+      <c r="AE1" s="18">
         <v>3</v>
       </c>
       <c r="AF1" s="19"/>
@@ -4440,92 +5178,92 @@
       <c r="AR1" s="20"/>
       <c r="AS1" s="20"/>
     </row>
-    <row r="2" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:53" ht="24.25" customHeight="1">
       <c r="A2" s="16"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="L2" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="S2" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="T2" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="U2" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="V2" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="W2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="18" t="n">
+      <c r="E2" s="18">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18">
+        <v>1</v>
+      </c>
+      <c r="G2" s="18">
+        <v>1</v>
+      </c>
+      <c r="H2" s="18">
+        <v>2</v>
+      </c>
+      <c r="I2" s="18">
+        <v>2</v>
+      </c>
+      <c r="J2" s="18">
+        <v>2</v>
+      </c>
+      <c r="K2" s="18">
+        <v>3</v>
+      </c>
+      <c r="L2" s="18">
+        <v>3</v>
+      </c>
+      <c r="M2" s="18">
+        <v>3</v>
+      </c>
+      <c r="N2" s="18">
+        <v>1</v>
+      </c>
+      <c r="O2" s="18">
+        <v>1</v>
+      </c>
+      <c r="P2" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>2</v>
+      </c>
+      <c r="R2" s="18">
+        <v>2</v>
+      </c>
+      <c r="S2" s="18">
+        <v>2</v>
+      </c>
+      <c r="T2" s="18">
+        <v>3</v>
+      </c>
+      <c r="U2" s="18">
+        <v>3</v>
+      </c>
+      <c r="V2" s="18">
+        <v>3</v>
+      </c>
+      <c r="W2" s="18">
+        <v>1</v>
+      </c>
+      <c r="X2" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="18">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="18">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="18">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="18">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="18">
         <v>3</v>
       </c>
       <c r="AF2" s="19"/>
@@ -4533,92 +5271,92 @@
       <c r="AR2" s="20"/>
       <c r="AS2" s="20"/>
     </row>
-    <row r="3" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:53" ht="24.25" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="15"/>
       <c r="D3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="S3" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="V3" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="W3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB3" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="18" t="n">
+      <c r="E3" s="18">
+        <v>1</v>
+      </c>
+      <c r="F3" s="18">
+        <v>2</v>
+      </c>
+      <c r="G3" s="18">
+        <v>3</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
+      <c r="I3" s="18">
+        <v>2</v>
+      </c>
+      <c r="J3" s="18">
+        <v>3</v>
+      </c>
+      <c r="K3" s="18">
+        <v>1</v>
+      </c>
+      <c r="L3" s="18">
+        <v>2</v>
+      </c>
+      <c r="M3" s="18">
+        <v>3</v>
+      </c>
+      <c r="N3" s="18">
+        <v>1</v>
+      </c>
+      <c r="O3" s="18">
+        <v>2</v>
+      </c>
+      <c r="P3" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>1</v>
+      </c>
+      <c r="R3" s="18">
+        <v>2</v>
+      </c>
+      <c r="S3" s="18">
+        <v>3</v>
+      </c>
+      <c r="T3" s="18">
+        <v>1</v>
+      </c>
+      <c r="U3" s="18">
+        <v>2</v>
+      </c>
+      <c r="V3" s="18">
+        <v>3</v>
+      </c>
+      <c r="W3" s="18">
+        <v>1</v>
+      </c>
+      <c r="X3" s="18">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="18">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="18">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="18">
         <v>3</v>
       </c>
       <c r="AF3" s="19"/>
@@ -4626,7 +5364,7 @@
       <c r="AR3" s="20"/>
       <c r="AS3" s="20"/>
     </row>
-    <row r="4" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:53" ht="24.25" customHeight="1">
       <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
@@ -4637,85 +5375,85 @@
         <v>10</v>
       </c>
       <c r="D4" s="15"/>
-      <c r="E4" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="H4" s="17" t="n">
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17">
+        <v>2</v>
+      </c>
+      <c r="G4" s="17">
+        <v>3</v>
+      </c>
+      <c r="H4" s="17">
         <v>4</v>
       </c>
-      <c r="I4" s="17" t="n">
+      <c r="I4" s="17">
         <v>5</v>
       </c>
-      <c r="J4" s="17" t="n">
+      <c r="J4" s="17">
         <v>6</v>
       </c>
-      <c r="K4" s="17" t="n">
+      <c r="K4" s="17">
         <v>7</v>
       </c>
-      <c r="L4" s="17" t="n">
+      <c r="L4" s="17">
         <v>8</v>
       </c>
-      <c r="M4" s="17" t="n">
+      <c r="M4" s="17">
         <v>9</v>
       </c>
-      <c r="N4" s="17" t="n">
+      <c r="N4" s="17">
         <v>10</v>
       </c>
-      <c r="O4" s="17" t="n">
+      <c r="O4" s="17">
         <v>11</v>
       </c>
-      <c r="P4" s="17" t="n">
+      <c r="P4" s="17">
         <v>12</v>
       </c>
-      <c r="Q4" s="17" t="n">
+      <c r="Q4" s="17">
         <v>13</v>
       </c>
-      <c r="R4" s="17" t="n">
+      <c r="R4" s="17">
         <v>14</v>
       </c>
-      <c r="S4" s="17" t="n">
+      <c r="S4" s="17">
         <v>15</v>
       </c>
-      <c r="T4" s="17" t="n">
+      <c r="T4" s="17">
         <v>16</v>
       </c>
-      <c r="U4" s="17" t="n">
+      <c r="U4" s="17">
         <v>17</v>
       </c>
-      <c r="V4" s="17" t="n">
+      <c r="V4" s="17">
         <v>18</v>
       </c>
-      <c r="W4" s="17" t="n">
+      <c r="W4" s="17">
         <v>19</v>
       </c>
-      <c r="X4" s="17" t="n">
+      <c r="X4" s="17">
         <v>20</v>
       </c>
-      <c r="Y4" s="17" t="n">
+      <c r="Y4" s="17">
         <v>21</v>
       </c>
-      <c r="Z4" s="17" t="n">
+      <c r="Z4" s="17">
         <v>22</v>
       </c>
-      <c r="AA4" s="17" t="n">
+      <c r="AA4" s="17">
         <v>23</v>
       </c>
-      <c r="AB4" s="17" t="n">
+      <c r="AB4" s="17">
         <v>24</v>
       </c>
-      <c r="AC4" s="17" t="n">
+      <c r="AC4" s="17">
         <v>25</v>
       </c>
-      <c r="AD4" s="17" t="n">
+      <c r="AD4" s="17">
         <v>26</v>
       </c>
-      <c r="AE4" s="17" t="n">
+      <c r="AE4" s="17">
         <v>27</v>
       </c>
       <c r="AF4" s="19"/>
@@ -4723,17 +5461,17 @@
       <c r="AR4" s="20"/>
       <c r="AS4" s="20"/>
     </row>
-    <row r="5" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17" t="n">
+    <row r="5" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A5" s="21">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17">
         <v>1</v>
       </c>
       <c r="E5" s="15"/>
@@ -4768,17 +5506,17 @@
       <c r="AR5" s="20"/>
       <c r="AS5" s="20"/>
     </row>
-    <row r="6" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="17" t="n">
+    <row r="6" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A6" s="21">
+        <v>1</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
+        <v>2</v>
+      </c>
+      <c r="D6" s="17">
         <v>2</v>
       </c>
       <c r="E6" s="18"/>
@@ -4831,17 +5569,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" s="17" t="n">
+    <row r="7" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A7" s="21">
+        <v>1</v>
+      </c>
+      <c r="B7" s="21">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21">
+        <v>3</v>
+      </c>
+      <c r="D7" s="17">
         <v>3</v>
       </c>
       <c r="E7" s="18"/>
@@ -4872,16 +5610,16 @@
       <c r="AD7" s="18"/>
       <c r="AE7" s="18"/>
       <c r="AF7" s="19"/>
-      <c r="AK7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="17" t="n">
+      <c r="AK7" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="17">
         <v>1</v>
       </c>
       <c r="AO7" s="20" t="s">
@@ -4893,31 +5631,31 @@
       <c r="AQ7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AR7" s="17" t="n">
+      <c r="AR7" s="17">
         <v>1</v>
       </c>
       <c r="AS7" s="20"/>
-      <c r="AY7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA7" s="21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="17" t="n">
+      <c r="AY7" s="21">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="21">
+        <v>2</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17">
         <v>4</v>
       </c>
       <c r="E8" s="18"/>
@@ -4948,16 +5686,16 @@
       <c r="AD8" s="18"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="19"/>
-      <c r="AK8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN8" s="17" t="n">
+      <c r="AK8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="21">
+        <v>2</v>
+      </c>
+      <c r="AN8" s="17">
         <v>2</v>
       </c>
       <c r="AO8" s="20" t="s">
@@ -4969,31 +5707,31 @@
       <c r="AQ8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AR8" s="17" t="n">
+      <c r="AR8" s="17">
         <v>2</v>
       </c>
       <c r="AS8" s="20"/>
-      <c r="AY8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ8" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA8" s="21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" s="17" t="n">
+      <c r="AY8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="21">
+        <v>2</v>
+      </c>
+      <c r="BA8" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A9" s="21">
+        <v>1</v>
+      </c>
+      <c r="B9" s="21">
+        <v>2</v>
+      </c>
+      <c r="C9" s="21">
+        <v>2</v>
+      </c>
+      <c r="D9" s="17">
         <v>5</v>
       </c>
       <c r="E9" s="18"/>
@@ -5024,16 +5762,16 @@
       <c r="AD9" s="18"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="19"/>
-      <c r="AK9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM9" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN9" s="17" t="n">
+      <c r="AK9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="21">
+        <v>3</v>
+      </c>
+      <c r="AN9" s="17">
         <v>3</v>
       </c>
       <c r="AO9" s="20" t="s">
@@ -5045,31 +5783,31 @@
       <c r="AQ9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AR9" s="17" t="n">
+      <c r="AR9" s="17">
         <v>3</v>
       </c>
       <c r="AS9" s="20"/>
-      <c r="AY9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ9" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA9" s="21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" s="17" t="n">
+      <c r="AY9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="21">
+        <v>3</v>
+      </c>
+      <c r="BA9" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A10" s="21">
+        <v>1</v>
+      </c>
+      <c r="B10" s="21">
+        <v>2</v>
+      </c>
+      <c r="C10" s="21">
+        <v>3</v>
+      </c>
+      <c r="D10" s="17">
         <v>6</v>
       </c>
       <c r="E10" s="18"/>
@@ -5100,16 +5838,16 @@
       <c r="AD10" s="18"/>
       <c r="AE10" s="18"/>
       <c r="AF10" s="19"/>
-      <c r="AK10" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL10" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM10" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="17" t="n">
+      <c r="AK10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="21">
+        <v>2</v>
+      </c>
+      <c r="AM10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="17">
         <v>4</v>
       </c>
       <c r="AO10" s="20" t="s">
@@ -5121,31 +5859,31 @@
       <c r="AQ10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AR10" s="17" t="n">
+      <c r="AR10" s="17">
         <v>4</v>
       </c>
       <c r="AS10" s="20"/>
-      <c r="AY10" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ10" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA10" s="21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="17" t="n">
+      <c r="AY10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A11" s="21">
+        <v>1</v>
+      </c>
+      <c r="B11" s="21">
+        <v>3</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17">
         <v>7</v>
       </c>
       <c r="E11" s="18"/>
@@ -5176,16 +5914,16 @@
       <c r="AD11" s="18"/>
       <c r="AE11" s="18"/>
       <c r="AF11" s="19"/>
-      <c r="AK11" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM11" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN11" s="17" t="n">
+      <c r="AK11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="21">
+        <v>2</v>
+      </c>
+      <c r="AM11" s="21">
+        <v>2</v>
+      </c>
+      <c r="AN11" s="17">
         <v>5</v>
       </c>
       <c r="AO11" s="20" t="s">
@@ -5197,31 +5935,31 @@
       <c r="AQ11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AR11" s="17" t="n">
+      <c r="AR11" s="17">
         <v>5</v>
       </c>
       <c r="AS11" s="20"/>
-      <c r="AY11" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ11" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA11" s="21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" s="17" t="n">
+      <c r="AY11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="21">
+        <v>2</v>
+      </c>
+      <c r="BA11" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A12" s="21">
+        <v>1</v>
+      </c>
+      <c r="B12" s="21">
+        <v>3</v>
+      </c>
+      <c r="C12" s="21">
+        <v>2</v>
+      </c>
+      <c r="D12" s="17">
         <v>8</v>
       </c>
       <c r="E12" s="18"/>
@@ -5252,16 +5990,16 @@
       <c r="AD12" s="18"/>
       <c r="AE12" s="18"/>
       <c r="AF12" s="19"/>
-      <c r="AK12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM12" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN12" s="17" t="n">
+      <c r="AK12" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="21">
+        <v>2</v>
+      </c>
+      <c r="AM12" s="21">
+        <v>3</v>
+      </c>
+      <c r="AN12" s="17">
         <v>6</v>
       </c>
       <c r="AO12" s="20" t="s">
@@ -5273,31 +6011,31 @@
       <c r="AQ12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AR12" s="17" t="n">
+      <c r="AR12" s="17">
         <v>6</v>
       </c>
       <c r="AS12" s="20"/>
-      <c r="AY12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ12" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA12" s="21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" s="17" t="n">
+      <c r="AY12" s="21">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="21">
+        <v>3</v>
+      </c>
+      <c r="BA12" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A13" s="21">
+        <v>1</v>
+      </c>
+      <c r="B13" s="21">
+        <v>3</v>
+      </c>
+      <c r="C13" s="21">
+        <v>3</v>
+      </c>
+      <c r="D13" s="17">
         <v>9</v>
       </c>
       <c r="E13" s="18"/>
@@ -5328,16 +6066,16 @@
       <c r="AD13" s="18"/>
       <c r="AE13" s="18"/>
       <c r="AF13" s="19"/>
-      <c r="AK13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="17" t="n">
+      <c r="AK13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="21">
+        <v>3</v>
+      </c>
+      <c r="AM13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="17">
         <v>7</v>
       </c>
       <c r="AO13" s="20" t="s">
@@ -5349,31 +6087,31 @@
       <c r="AQ13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AR13" s="17" t="n">
+      <c r="AR13" s="17">
         <v>7</v>
       </c>
       <c r="AS13" s="20"/>
-      <c r="AY13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA13" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="17" t="n">
+      <c r="AY13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A14" s="21">
+        <v>2</v>
+      </c>
+      <c r="B14" s="21">
+        <v>1</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17">
         <v>10</v>
       </c>
       <c r="E14" s="18"/>
@@ -5404,16 +6142,16 @@
       <c r="AD14" s="18"/>
       <c r="AE14" s="18"/>
       <c r="AF14" s="19"/>
-      <c r="AK14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM14" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN14" s="17" t="n">
+      <c r="AK14" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="21">
+        <v>3</v>
+      </c>
+      <c r="AM14" s="21">
+        <v>2</v>
+      </c>
+      <c r="AN14" s="17">
         <v>8</v>
       </c>
       <c r="AO14" s="20" t="s">
@@ -5425,31 +6163,31 @@
       <c r="AQ14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AR14" s="17" t="n">
+      <c r="AR14" s="17">
         <v>8</v>
       </c>
       <c r="AS14" s="20"/>
-      <c r="AY14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ14" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA14" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" s="17" t="n">
+      <c r="AY14" s="21">
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="21">
+        <v>2</v>
+      </c>
+      <c r="BA14" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A15" s="21">
+        <v>2</v>
+      </c>
+      <c r="B15" s="21">
+        <v>1</v>
+      </c>
+      <c r="C15" s="21">
+        <v>2</v>
+      </c>
+      <c r="D15" s="17">
         <v>11</v>
       </c>
       <c r="E15" s="18"/>
@@ -5480,16 +6218,16 @@
       <c r="AD15" s="18"/>
       <c r="AE15" s="18"/>
       <c r="AF15" s="19"/>
-      <c r="AK15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM15" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN15" s="17" t="n">
+      <c r="AK15" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="21">
+        <v>3</v>
+      </c>
+      <c r="AM15" s="21">
+        <v>3</v>
+      </c>
+      <c r="AN15" s="17">
         <v>9</v>
       </c>
       <c r="AO15" s="20" t="s">
@@ -5501,31 +6239,31 @@
       <c r="AQ15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AR15" s="17" t="n">
+      <c r="AR15" s="17">
         <v>9</v>
       </c>
       <c r="AS15" s="20"/>
-      <c r="AY15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ15" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA15" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" s="17" t="n">
+      <c r="AY15" s="21">
+        <v>1</v>
+      </c>
+      <c r="AZ15" s="21">
+        <v>3</v>
+      </c>
+      <c r="BA15" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A16" s="21">
+        <v>2</v>
+      </c>
+      <c r="B16" s="21">
+        <v>1</v>
+      </c>
+      <c r="C16" s="21">
+        <v>3</v>
+      </c>
+      <c r="D16" s="17">
         <v>12</v>
       </c>
       <c r="E16" s="18"/>
@@ -5556,16 +6294,16 @@
       <c r="AD16" s="18"/>
       <c r="AE16" s="18"/>
       <c r="AF16" s="19"/>
-      <c r="AK16" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN16" s="17" t="n">
+      <c r="AK16" s="21">
+        <v>2</v>
+      </c>
+      <c r="AL16" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="17">
         <v>10</v>
       </c>
       <c r="AO16" s="20" t="s">
@@ -5577,31 +6315,31 @@
       <c r="AQ16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AR16" s="17" t="n">
+      <c r="AR16" s="17">
         <v>10</v>
       </c>
       <c r="AS16" s="20"/>
-      <c r="AY16" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA16" s="21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="17" t="n">
+      <c r="AY16" s="21">
+        <v>2</v>
+      </c>
+      <c r="AZ16" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA16" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A17" s="21">
+        <v>2</v>
+      </c>
+      <c r="B17" s="21">
+        <v>2</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1</v>
+      </c>
+      <c r="D17" s="17">
         <v>13</v>
       </c>
       <c r="E17" s="18"/>
@@ -5632,16 +6370,16 @@
       <c r="AD17" s="18"/>
       <c r="AE17" s="18"/>
       <c r="AF17" s="19"/>
-      <c r="AK17" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM17" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN17" s="17" t="n">
+      <c r="AK17" s="21">
+        <v>2</v>
+      </c>
+      <c r="AL17" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="21">
+        <v>2</v>
+      </c>
+      <c r="AN17" s="17">
         <v>11</v>
       </c>
       <c r="AO17" s="20" t="s">
@@ -5653,31 +6391,31 @@
       <c r="AQ17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AR17" s="17" t="n">
+      <c r="AR17" s="17">
         <v>11</v>
       </c>
       <c r="AS17" s="20"/>
-      <c r="AY17" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ17" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA17" s="21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" s="17" t="n">
+      <c r="AY17" s="21">
+        <v>2</v>
+      </c>
+      <c r="AZ17" s="21">
+        <v>2</v>
+      </c>
+      <c r="BA17" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A18" s="21">
+        <v>2</v>
+      </c>
+      <c r="B18" s="21">
+        <v>2</v>
+      </c>
+      <c r="C18" s="21">
+        <v>2</v>
+      </c>
+      <c r="D18" s="17">
         <v>14</v>
       </c>
       <c r="E18" s="18"/>
@@ -5708,16 +6446,16 @@
       <c r="AD18" s="18"/>
       <c r="AE18" s="18"/>
       <c r="AF18" s="19"/>
-      <c r="AK18" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN18" s="17" t="n">
+      <c r="AK18" s="21">
+        <v>2</v>
+      </c>
+      <c r="AL18" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="21">
+        <v>3</v>
+      </c>
+      <c r="AN18" s="17">
         <v>12</v>
       </c>
       <c r="AO18" s="20" t="s">
@@ -5729,31 +6467,31 @@
       <c r="AQ18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AR18" s="17" t="n">
+      <c r="AR18" s="17">
         <v>12</v>
       </c>
       <c r="AS18" s="20"/>
-      <c r="AY18" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ18" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA18" s="21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" s="17" t="n">
+      <c r="AY18" s="21">
+        <v>2</v>
+      </c>
+      <c r="AZ18" s="21">
+        <v>3</v>
+      </c>
+      <c r="BA18" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A19" s="21">
+        <v>2</v>
+      </c>
+      <c r="B19" s="21">
+        <v>2</v>
+      </c>
+      <c r="C19" s="21">
+        <v>3</v>
+      </c>
+      <c r="D19" s="17">
         <v>15</v>
       </c>
       <c r="E19" s="18"/>
@@ -5784,16 +6522,16 @@
       <c r="AD19" s="18"/>
       <c r="AE19" s="18"/>
       <c r="AF19" s="19"/>
-      <c r="AK19" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL19" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN19" s="17" t="n">
+      <c r="AK19" s="21">
+        <v>2</v>
+      </c>
+      <c r="AL19" s="21">
+        <v>2</v>
+      </c>
+      <c r="AM19" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="17">
         <v>13</v>
       </c>
       <c r="AO19" s="20" t="s">
@@ -5805,31 +6543,31 @@
       <c r="AQ19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AR19" s="17" t="n">
+      <c r="AR19" s="17">
         <v>13</v>
       </c>
       <c r="AS19" s="20"/>
-      <c r="AY19" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA19" s="21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="B20" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="17" t="n">
+      <c r="AY19" s="21">
+        <v>2</v>
+      </c>
+      <c r="AZ19" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA19" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A20" s="21">
+        <v>2</v>
+      </c>
+      <c r="B20" s="21">
+        <v>3</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1</v>
+      </c>
+      <c r="D20" s="17">
         <v>16</v>
       </c>
       <c r="E20" s="18"/>
@@ -5860,16 +6598,16 @@
       <c r="AD20" s="18"/>
       <c r="AE20" s="18"/>
       <c r="AF20" s="19"/>
-      <c r="AK20" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL20" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM20" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN20" s="17" t="n">
+      <c r="AK20" s="21">
+        <v>2</v>
+      </c>
+      <c r="AL20" s="21">
+        <v>2</v>
+      </c>
+      <c r="AM20" s="21">
+        <v>2</v>
+      </c>
+      <c r="AN20" s="17">
         <v>14</v>
       </c>
       <c r="AO20" s="20" t="s">
@@ -5881,31 +6619,31 @@
       <c r="AQ20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AR20" s="17" t="n">
+      <c r="AR20" s="17">
         <v>14</v>
       </c>
       <c r="AS20" s="20"/>
-      <c r="AY20" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ20" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA20" s="21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="B21" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" s="17" t="n">
+      <c r="AY20" s="21">
+        <v>2</v>
+      </c>
+      <c r="AZ20" s="21">
+        <v>2</v>
+      </c>
+      <c r="BA20" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A21" s="21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="17">
         <v>17</v>
       </c>
       <c r="E21" s="18"/>
@@ -5936,16 +6674,16 @@
       <c r="AD21" s="18"/>
       <c r="AE21" s="18"/>
       <c r="AF21" s="19"/>
-      <c r="AK21" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL21" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM21" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN21" s="17" t="n">
+      <c r="AK21" s="21">
+        <v>2</v>
+      </c>
+      <c r="AL21" s="21">
+        <v>2</v>
+      </c>
+      <c r="AM21" s="21">
+        <v>3</v>
+      </c>
+      <c r="AN21" s="17">
         <v>15</v>
       </c>
       <c r="AO21" s="20" t="s">
@@ -5957,31 +6695,31 @@
       <c r="AQ21" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AR21" s="17" t="n">
+      <c r="AR21" s="17">
         <v>15</v>
       </c>
       <c r="AS21" s="20"/>
-      <c r="AY21" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ21" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA21" s="21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="B22" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C22" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="D22" s="17" t="n">
+      <c r="AY21" s="21">
+        <v>2</v>
+      </c>
+      <c r="AZ21" s="21">
+        <v>3</v>
+      </c>
+      <c r="BA21" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A22" s="21">
+        <v>2</v>
+      </c>
+      <c r="B22" s="21">
+        <v>3</v>
+      </c>
+      <c r="C22" s="21">
+        <v>3</v>
+      </c>
+      <c r="D22" s="17">
         <v>18</v>
       </c>
       <c r="E22" s="18"/>
@@ -6012,16 +6750,16 @@
       <c r="AD22" s="18"/>
       <c r="AE22" s="18"/>
       <c r="AF22" s="19"/>
-      <c r="AK22" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL22" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN22" s="17" t="n">
+      <c r="AK22" s="21">
+        <v>2</v>
+      </c>
+      <c r="AL22" s="21">
+        <v>3</v>
+      </c>
+      <c r="AM22" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="17">
         <v>16</v>
       </c>
       <c r="AO22" s="20" t="s">
@@ -6033,31 +6771,31 @@
       <c r="AQ22" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AR22" s="17" t="n">
+      <c r="AR22" s="17">
         <v>16</v>
       </c>
       <c r="AS22" s="20"/>
-      <c r="AY22" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA22" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="17" t="n">
+      <c r="AY22" s="21">
+        <v>2</v>
+      </c>
+      <c r="AZ22" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA22" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A23" s="21">
+        <v>3</v>
+      </c>
+      <c r="B23" s="21">
+        <v>1</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1</v>
+      </c>
+      <c r="D23" s="17">
         <v>19</v>
       </c>
       <c r="E23" s="18"/>
@@ -6088,16 +6826,16 @@
       <c r="AD23" s="18"/>
       <c r="AE23" s="18"/>
       <c r="AF23" s="19"/>
-      <c r="AK23" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL23" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM23" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN23" s="17" t="n">
+      <c r="AK23" s="21">
+        <v>2</v>
+      </c>
+      <c r="AL23" s="21">
+        <v>3</v>
+      </c>
+      <c r="AM23" s="21">
+        <v>2</v>
+      </c>
+      <c r="AN23" s="17">
         <v>17</v>
       </c>
       <c r="AO23" s="20" t="s">
@@ -6109,31 +6847,31 @@
       <c r="AQ23" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AR23" s="17" t="n">
+      <c r="AR23" s="17">
         <v>17</v>
       </c>
       <c r="AS23" s="20"/>
-      <c r="AY23" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ23" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA23" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="B24" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" s="17" t="n">
+      <c r="AY23" s="21">
+        <v>2</v>
+      </c>
+      <c r="AZ23" s="21">
+        <v>2</v>
+      </c>
+      <c r="BA23" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A24" s="21">
+        <v>3</v>
+      </c>
+      <c r="B24" s="21">
+        <v>1</v>
+      </c>
+      <c r="C24" s="21">
+        <v>2</v>
+      </c>
+      <c r="D24" s="17">
         <v>20</v>
       </c>
       <c r="E24" s="18"/>
@@ -6164,16 +6902,16 @@
       <c r="AD24" s="18"/>
       <c r="AE24" s="18"/>
       <c r="AF24" s="19"/>
-      <c r="AK24" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL24" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM24" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN24" s="17" t="n">
+      <c r="AK24" s="21">
+        <v>2</v>
+      </c>
+      <c r="AL24" s="21">
+        <v>3</v>
+      </c>
+      <c r="AM24" s="21">
+        <v>3</v>
+      </c>
+      <c r="AN24" s="17">
         <v>18</v>
       </c>
       <c r="AO24" s="20" t="s">
@@ -6185,31 +6923,31 @@
       <c r="AQ24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AR24" s="17" t="n">
+      <c r="AR24" s="17">
         <v>18</v>
       </c>
       <c r="AS24" s="20"/>
-      <c r="AY24" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ24" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA24" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="B25" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="D25" s="17" t="n">
+      <c r="AY24" s="21">
+        <v>2</v>
+      </c>
+      <c r="AZ24" s="21">
+        <v>3</v>
+      </c>
+      <c r="BA24" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A25" s="21">
+        <v>3</v>
+      </c>
+      <c r="B25" s="21">
+        <v>1</v>
+      </c>
+      <c r="C25" s="21">
+        <v>3</v>
+      </c>
+      <c r="D25" s="17">
         <v>21</v>
       </c>
       <c r="E25" s="18"/>
@@ -6240,16 +6978,16 @@
       <c r="AD25" s="18"/>
       <c r="AE25" s="18"/>
       <c r="AF25" s="19"/>
-      <c r="AK25" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL25" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM25" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN25" s="17" t="n">
+      <c r="AK25" s="21">
+        <v>3</v>
+      </c>
+      <c r="AL25" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="17">
         <v>19</v>
       </c>
       <c r="AO25" s="20" t="s">
@@ -6261,31 +6999,31 @@
       <c r="AQ25" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AR25" s="17" t="n">
+      <c r="AR25" s="17">
         <v>19</v>
       </c>
       <c r="AS25" s="20"/>
-      <c r="AY25" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ25" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA25" s="21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="B26" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C26" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="17" t="n">
+      <c r="AY25" s="21">
+        <v>3</v>
+      </c>
+      <c r="AZ25" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA25" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A26" s="21">
+        <v>3</v>
+      </c>
+      <c r="B26" s="21">
+        <v>2</v>
+      </c>
+      <c r="C26" s="21">
+        <v>1</v>
+      </c>
+      <c r="D26" s="17">
         <v>22</v>
       </c>
       <c r="E26" s="18"/>
@@ -6316,16 +7054,16 @@
       <c r="AD26" s="18"/>
       <c r="AE26" s="18"/>
       <c r="AF26" s="19"/>
-      <c r="AK26" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL26" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM26" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN26" s="17" t="n">
+      <c r="AK26" s="21">
+        <v>3</v>
+      </c>
+      <c r="AL26" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="21">
+        <v>2</v>
+      </c>
+      <c r="AN26" s="17">
         <v>20</v>
       </c>
       <c r="AO26" s="20" t="s">
@@ -6337,31 +7075,31 @@
       <c r="AQ26" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AR26" s="17" t="n">
+      <c r="AR26" s="17">
         <v>20</v>
       </c>
       <c r="AS26" s="20"/>
-      <c r="AY26" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ26" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA26" s="21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="B27" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C27" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" s="17" t="n">
+      <c r="AY26" s="21">
+        <v>3</v>
+      </c>
+      <c r="AZ26" s="21">
+        <v>2</v>
+      </c>
+      <c r="BA26" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A27" s="21">
+        <v>3</v>
+      </c>
+      <c r="B27" s="21">
+        <v>2</v>
+      </c>
+      <c r="C27" s="21">
+        <v>2</v>
+      </c>
+      <c r="D27" s="17">
         <v>23</v>
       </c>
       <c r="E27" s="18"/>
@@ -6392,16 +7130,16 @@
       <c r="AD27" s="18"/>
       <c r="AE27" s="18"/>
       <c r="AF27" s="19"/>
-      <c r="AK27" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL27" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM27" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN27" s="17" t="n">
+      <c r="AK27" s="21">
+        <v>3</v>
+      </c>
+      <c r="AL27" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="21">
+        <v>3</v>
+      </c>
+      <c r="AN27" s="17">
         <v>21</v>
       </c>
       <c r="AO27" s="20" t="s">
@@ -6413,31 +7151,31 @@
       <c r="AQ27" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AR27" s="17" t="n">
+      <c r="AR27" s="17">
         <v>21</v>
       </c>
       <c r="AS27" s="20"/>
-      <c r="AY27" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ27" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA27" s="21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="B28" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C28" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="D28" s="17" t="n">
+      <c r="AY27" s="21">
+        <v>3</v>
+      </c>
+      <c r="AZ27" s="21">
+        <v>3</v>
+      </c>
+      <c r="BA27" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A28" s="21">
+        <v>3</v>
+      </c>
+      <c r="B28" s="21">
+        <v>2</v>
+      </c>
+      <c r="C28" s="21">
+        <v>3</v>
+      </c>
+      <c r="D28" s="17">
         <v>24</v>
       </c>
       <c r="E28" s="18"/>
@@ -6468,16 +7206,16 @@
       <c r="AD28" s="18"/>
       <c r="AE28" s="18"/>
       <c r="AF28" s="19"/>
-      <c r="AK28" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL28" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM28" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN28" s="17" t="n">
+      <c r="AK28" s="21">
+        <v>3</v>
+      </c>
+      <c r="AL28" s="21">
+        <v>2</v>
+      </c>
+      <c r="AM28" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="17">
         <v>22</v>
       </c>
       <c r="AO28" s="20" t="s">
@@ -6489,30 +7227,30 @@
       <c r="AQ28" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AR28" s="17" t="n">
+      <c r="AR28" s="17">
         <v>22</v>
       </c>
-      <c r="AY28" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ28" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA28" s="21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="B29" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C29" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="17" t="n">
+      <c r="AY28" s="21">
+        <v>3</v>
+      </c>
+      <c r="AZ28" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA28" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A29" s="21">
+        <v>3</v>
+      </c>
+      <c r="B29" s="21">
+        <v>3</v>
+      </c>
+      <c r="C29" s="21">
+        <v>1</v>
+      </c>
+      <c r="D29" s="17">
         <v>25</v>
       </c>
       <c r="E29" s="18"/>
@@ -6543,16 +7281,16 @@
       <c r="AD29" s="18"/>
       <c r="AE29" s="18"/>
       <c r="AF29" s="19"/>
-      <c r="AK29" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL29" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM29" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN29" s="17" t="n">
+      <c r="AK29" s="21">
+        <v>3</v>
+      </c>
+      <c r="AL29" s="21">
+        <v>2</v>
+      </c>
+      <c r="AM29" s="21">
+        <v>2</v>
+      </c>
+      <c r="AN29" s="17">
         <v>23</v>
       </c>
       <c r="AO29" s="20" t="s">
@@ -6564,30 +7302,30 @@
       <c r="AQ29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AR29" s="17" t="n">
+      <c r="AR29" s="17">
         <v>23</v>
       </c>
-      <c r="AY29" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ29" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA29" s="21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="B30" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C30" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D30" s="17" t="n">
+      <c r="AY29" s="21">
+        <v>3</v>
+      </c>
+      <c r="AZ29" s="21">
+        <v>2</v>
+      </c>
+      <c r="BA29" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A30" s="21">
+        <v>3</v>
+      </c>
+      <c r="B30" s="21">
+        <v>3</v>
+      </c>
+      <c r="C30" s="21">
+        <v>2</v>
+      </c>
+      <c r="D30" s="17">
         <v>26</v>
       </c>
       <c r="E30" s="18"/>
@@ -6618,16 +7356,16 @@
       <c r="AD30" s="15"/>
       <c r="AE30" s="18"/>
       <c r="AF30" s="19"/>
-      <c r="AK30" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL30" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM30" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN30" s="17" t="n">
+      <c r="AK30" s="21">
+        <v>3</v>
+      </c>
+      <c r="AL30" s="21">
+        <v>2</v>
+      </c>
+      <c r="AM30" s="21">
+        <v>3</v>
+      </c>
+      <c r="AN30" s="17">
         <v>24</v>
       </c>
       <c r="AO30" s="20" t="s">
@@ -6639,30 +7377,30 @@
       <c r="AQ30" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AR30" s="17" t="n">
+      <c r="AR30" s="17">
         <v>24</v>
       </c>
-      <c r="AY30" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ30" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA30" s="21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="B31" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C31" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="D31" s="17" t="n">
+      <c r="AY30" s="21">
+        <v>3</v>
+      </c>
+      <c r="AZ30" s="21">
+        <v>3</v>
+      </c>
+      <c r="BA30" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:53" ht="24.25" customHeight="1">
+      <c r="A31" s="21">
+        <v>3</v>
+      </c>
+      <c r="B31" s="21">
+        <v>3</v>
+      </c>
+      <c r="C31" s="21">
+        <v>3</v>
+      </c>
+      <c r="D31" s="17">
         <v>27</v>
       </c>
       <c r="E31" s="18"/>
@@ -6693,16 +7431,16 @@
       <c r="AD31" s="18"/>
       <c r="AE31" s="15"/>
       <c r="AF31" s="19"/>
-      <c r="AK31" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL31" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM31" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN31" s="17" t="n">
+      <c r="AK31" s="21">
+        <v>3</v>
+      </c>
+      <c r="AL31" s="21">
+        <v>3</v>
+      </c>
+      <c r="AM31" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="17">
         <v>25</v>
       </c>
       <c r="AO31" s="20" t="s">
@@ -6714,20 +7452,20 @@
       <c r="AQ31" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AR31" s="17" t="n">
+      <c r="AR31" s="17">
         <v>25</v>
       </c>
-      <c r="AY31" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ31" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA31" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AY31" s="21">
+        <v>3</v>
+      </c>
+      <c r="AZ31" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA31" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:53" ht="24.25" customHeight="1">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -6760,16 +7498,16 @@
       <c r="AD32" s="19"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
-      <c r="AK32" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL32" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM32" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN32" s="17" t="n">
+      <c r="AK32" s="21">
+        <v>3</v>
+      </c>
+      <c r="AL32" s="21">
+        <v>3</v>
+      </c>
+      <c r="AM32" s="21">
+        <v>2</v>
+      </c>
+      <c r="AN32" s="17">
         <v>26</v>
       </c>
       <c r="AO32" s="20" t="s">
@@ -6781,30 +7519,30 @@
       <c r="AQ32" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AR32" s="17" t="n">
+      <c r="AR32" s="17">
         <v>26</v>
       </c>
-      <c r="AY32" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ32" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA32" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AK33" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL33" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM33" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN33" s="17" t="n">
+      <c r="AY32" s="21">
+        <v>3</v>
+      </c>
+      <c r="AZ32" s="21">
+        <v>2</v>
+      </c>
+      <c r="BA32" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="37:53" ht="24.25" customHeight="1">
+      <c r="AK33" s="21">
+        <v>3</v>
+      </c>
+      <c r="AL33" s="21">
+        <v>3</v>
+      </c>
+      <c r="AM33" s="21">
+        <v>3</v>
+      </c>
+      <c r="AN33" s="17">
         <v>27</v>
       </c>
       <c r="AO33" s="20" t="s">
@@ -6816,16 +7554,16 @@
       <c r="AQ33" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AR33" s="17" t="n">
+      <c r="AR33" s="17">
         <v>27</v>
       </c>
-      <c r="AY33" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ33" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA33" s="21" t="n">
+      <c r="AY33" s="21">
+        <v>3</v>
+      </c>
+      <c r="AZ33" s="21">
+        <v>3</v>
+      </c>
+      <c r="BA33" s="21">
         <v>1</v>
       </c>
     </row>
@@ -6833,8 +7571,8 @@
   <conditionalFormatting sqref="A5:C31">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFFF200"/>
         <color rgb="FFED1C24"/>
       </colorScale>
@@ -6843,8 +7581,8 @@
   <conditionalFormatting sqref="E1:AE3">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFFF200"/>
         <color rgb="FFED1C24"/>
       </colorScale>
@@ -6853,8 +7591,8 @@
   <conditionalFormatting sqref="AK7:AM33">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFFF200"/>
         <color rgb="FFED1C24"/>
       </colorScale>
@@ -6863,19 +7601,376 @@
   <conditionalFormatting sqref="AY7:BA33">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFFF200"/>
         <color rgb="FFED1C24"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="22">
+        <v>3</v>
+      </c>
+      <c r="B11" s="22">
+        <v>2</v>
+      </c>
+      <c r="C11" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A12:C13 A15:C18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF3366FF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:C21 A24:C27 A14:C14 A1:C11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF3366FF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:C23">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF3366FF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>